--- a/Ballers_athletes.xlsx
+++ b/Ballers_athletes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://teamuaesports-my.sharepoint.com/personal/keenan_dundas_elitesportuae_ae/Documents/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://teamuaesports-my.sharepoint.com/personal/support_elitesportuae_ae/Documents/For ALL/Documents/Data Management/Apps/Attendance/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{51C90E9C-8A15-4BA5-A564-5B6735B19753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="8_{51C90E9C-8A15-4BA5-A564-5B6735B19753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C358B348-FB12-43F8-86A6-910787776BC0}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1EF58561-E199-40CE-84BA-E354526DE5C8}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7270" xr2:uid="{1EF58561-E199-40CE-84BA-E354526DE5C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="49">
   <si>
     <t>Athlete list</t>
   </si>
@@ -131,9 +131,6 @@
     <t>Enqelya Mahra</t>
   </si>
   <si>
-    <t>Badminton</t>
-  </si>
-  <si>
     <t>Janani Anantha kumar</t>
   </si>
   <si>
@@ -180,6 +177,12 @@
   </si>
   <si>
     <t>Dev Vishnu</t>
+  </si>
+  <si>
+    <t>Nurani Azzahra</t>
+  </si>
+  <si>
+    <t>Badminton (Elite Pathway)</t>
   </si>
 </sst>
 </file>
@@ -566,10 +569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDF3965C-B169-4AF6-B4C2-E4AB2ED2699C}">
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33:B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -804,130 +807,138 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>31</v>
+        <v>40</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>31</v>
+        <v>42</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>31</v>
+      <c r="B45" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/Ballers_athletes.xlsx
+++ b/Ballers_athletes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://teamuaesports-my.sharepoint.com/personal/support_elitesportuae_ae/Documents/For ALL/Documents/Data Management/Apps/Attendance/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="8_{51C90E9C-8A15-4BA5-A564-5B6735B19753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C358B348-FB12-43F8-86A6-910787776BC0}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="8_{51C90E9C-8A15-4BA5-A564-5B6735B19753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA9EBB2D-C573-4B63-9E9D-16B713B04C64}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7270" xr2:uid="{1EF58561-E199-40CE-84BA-E354526DE5C8}"/>
+    <workbookView xWindow="1860" yWindow="490" windowWidth="14400" windowHeight="7270" xr2:uid="{1EF58561-E199-40CE-84BA-E354526DE5C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="51">
   <si>
     <t>Athlete list</t>
   </si>
@@ -183,6 +183,12 @@
   </si>
   <si>
     <t>Badminton (Elite Pathway)</t>
+  </si>
+  <si>
+    <t>Vishal Vasudevan</t>
+  </si>
+  <si>
+    <t>Somi Romdhani</t>
   </si>
 </sst>
 </file>
@@ -569,10 +575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDF3965C-B169-4AF6-B4C2-E4AB2ED2699C}">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33:B44"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -941,6 +947,22 @@
         <v>48</v>
       </c>
     </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
